--- a/events.xlsx
+++ b/events.xlsx
@@ -7,16 +7,20 @@
     <workbookView xWindow="120" yWindow="75" windowWidth="28590" windowHeight="12855"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <pivotCaches>
+    <pivotCache cacheId="4" r:id="rId5"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>userID</t>
   </si>
@@ -31,6 +35,27 @@
   </si>
   <si>
     <t>SQL</t>
+  </si>
+  <si>
+    <t>toidukord</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of amount</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>1 Total</t>
+  </si>
+  <si>
+    <t>2 Total</t>
+  </si>
+  <si>
+    <t>3 Total</t>
   </si>
 </sst>
 </file>
@@ -66,8 +91,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -80,6 +107,262 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Palm" refreshedDate="44142.76584270833" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="11">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:F12" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="SQL" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="userID" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+    </cacheField>
+    <cacheField name="eventDay" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1" count="1">
+        <n v="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="productID" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="7" maxValue="150" count="11">
+        <n v="7"/>
+        <n v="105"/>
+        <n v="125"/>
+        <n v="150"/>
+        <n v="131"/>
+        <n v="24"/>
+        <n v="91"/>
+        <n v="35"/>
+        <n v="69"/>
+        <n v="26"/>
+        <n v="133"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="amount" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="10"/>
+    </cacheField>
+    <cacheField name="toidukord" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="3" count="3">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="11">
+  <r>
+    <s v="insert into toidupyramiid.events(userID, productID, amount, eventDay) values(1, 7, 2, 1)"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="insert into toidupyramiid.events(userID, productID, amount, eventDay) values(1, 105, 2, 1)"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="insert into toidupyramiid.events(userID, productID, amount, eventDay) values(1, 125, 2, 1)"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="insert into toidupyramiid.events(userID, productID, amount, eventDay) values(1, 150, 3, 1)"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="insert into toidupyramiid.events(userID, productID, amount, eventDay) values(1, 131, 1, 1)"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="insert into toidupyramiid.events(userID, productID, amount, eventDay) values(1, 24, 2, 1)"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="insert into toidupyramiid.events(userID, productID, amount, eventDay) values(1, 91, 3, 1)"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="insert into toidupyramiid.events(userID, productID, amount, eventDay) values(1, 35, 2, 1)"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="insert into toidupyramiid.events(userID, productID, amount, eventDay) values(1, 69, 2, 1)"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="8"/>
+    <n v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="insert into toidupyramiid.events(userID, productID, amount, eventDay) values(1, 26, 3, 1)"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="insert into toidupyramiid.events(userID, productID, amount, eventDay) values(1, 133, 10, 1)"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="10"/>
+    <n v="10"/>
+    <x v="2"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="A3:D20" firstHeaderRow="2" firstDataRow="2" firstDataCol="3"/>
+  <pivotFields count="6">
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="10"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="2"/>
+    <field x="5"/>
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="16">
+    <i>
+      <x/>
+      <x/>
+      <x/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="2">
+      <x v="8"/>
+    </i>
+    <i r="2">
+      <x v="10"/>
+    </i>
+    <i t="default" r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i t="default" r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="9"/>
+    </i>
+    <i t="default" r="1">
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of amount" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -369,119 +652,177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A3:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="str">
-        <f>"insert into toidupyramiid.events("&amp;$B$1&amp;", "&amp;$C$1&amp;", "&amp;$D$1&amp;", "&amp;$E$1&amp;") values("&amp;B2&amp;", "&amp;C2&amp;", "&amp;D2&amp;", "&amp;E2&amp;")"</f>
-        <v>insert into toidupyramiid.events(userID, productID, amount, eventDay) values(1, 7, 2, 1)</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>7</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="str">
-        <f t="shared" ref="A3:A6" si="0">"insert into toidupyramiid.events("&amp;$B$1&amp;", "&amp;$C$1&amp;", "&amp;$D$1&amp;", "&amp;$E$1&amp;") values("&amp;B3&amp;", "&amp;C3&amp;", "&amp;D3&amp;", "&amp;E3&amp;")"</f>
-        <v>insert into toidupyramiid.events(userID, productID, amount, eventDay) values(1, 105, 2, 1)</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C6">
         <v>105</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into toidupyramiid.events(userID, productID, amount, eventDay) values(1, 125, 2, 1)</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C7">
         <v>125</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into toidupyramiid.events(userID, productID, amount, eventDay) values(1, 150, 3, 1)</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>131</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C9">
         <v>150</v>
       </c>
-      <c r="D5">
+      <c r="D9" s="2">
         <v>3</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into toidupyramiid.events(userID, productID, amount, eventDay) values(1, 131, 1, 1)</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>131</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>35</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>91</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>26</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>69</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>133</v>
+      </c>
+      <c r="D17" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="2">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -491,12 +832,266 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>"insert into toidupyramiid.events("&amp;$B$1&amp;", "&amp;$D$1&amp;", "&amp;$E$1&amp;", "&amp;$C$1&amp;") values("&amp;B2&amp;", "&amp;D2&amp;", "&amp;E2&amp;", "&amp;C2&amp;")"</f>
+        <v>insert into toidupyramiid.events(userID, productID, amount, eventDay) values(1, 7, 2, 1)</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f>"insert into toidupyramiid.events("&amp;$B$1&amp;", "&amp;$D$1&amp;", "&amp;$E$1&amp;", "&amp;$C$1&amp;") values("&amp;B3&amp;", "&amp;D3&amp;", "&amp;E3&amp;", "&amp;C3&amp;")"</f>
+        <v>insert into toidupyramiid.events(userID, productID, amount, eventDay) values(1, 105, 2, 1)</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>105</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f>"insert into toidupyramiid.events("&amp;$B$1&amp;", "&amp;$D$1&amp;", "&amp;$E$1&amp;", "&amp;$C$1&amp;") values("&amp;B4&amp;", "&amp;D4&amp;", "&amp;E4&amp;", "&amp;C4&amp;")"</f>
+        <v>insert into toidupyramiid.events(userID, productID, amount, eventDay) values(1, 125, 2, 1)</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>125</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <f>"insert into toidupyramiid.events("&amp;$B$1&amp;", "&amp;$D$1&amp;", "&amp;$E$1&amp;", "&amp;$C$1&amp;") values("&amp;B5&amp;", "&amp;D5&amp;", "&amp;E5&amp;", "&amp;C5&amp;")"</f>
+        <v>insert into toidupyramiid.events(userID, productID, amount, eventDay) values(1, 150, 3, 1)</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>150</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="str">
+        <f>"insert into toidupyramiid.events("&amp;$B$1&amp;", "&amp;$D$1&amp;", "&amp;$E$1&amp;", "&amp;$C$1&amp;") values("&amp;B6&amp;", "&amp;D6&amp;", "&amp;E6&amp;", "&amp;C6&amp;")"</f>
+        <v>insert into toidupyramiid.events(userID, productID, amount, eventDay) values(1, 131, 1, 1)</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>131</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="str">
+        <f>"insert into toidupyramiid.events("&amp;$B$1&amp;", "&amp;$D$1&amp;", "&amp;$E$1&amp;", "&amp;$C$1&amp;") values("&amp;B7&amp;", "&amp;D7&amp;", "&amp;E7&amp;", "&amp;C7&amp;")"</f>
+        <v>insert into toidupyramiid.events(userID, productID, amount, eventDay) values(1, 24, 2, 1)</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="str">
+        <f>"insert into toidupyramiid.events("&amp;$B$1&amp;", "&amp;$D$1&amp;", "&amp;$E$1&amp;", "&amp;$C$1&amp;") values("&amp;B8&amp;", "&amp;D8&amp;", "&amp;E8&amp;", "&amp;C8&amp;")"</f>
+        <v>insert into toidupyramiid.events(userID, productID, amount, eventDay) values(1, 91, 3, 1)</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>91</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="str">
+        <f>"insert into toidupyramiid.events("&amp;$B$1&amp;", "&amp;$D$1&amp;", "&amp;$E$1&amp;", "&amp;$C$1&amp;") values("&amp;B9&amp;", "&amp;D9&amp;", "&amp;E9&amp;", "&amp;C9&amp;")"</f>
+        <v>insert into toidupyramiid.events(userID, productID, amount, eventDay) values(1, 35, 2, 1)</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>35</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="str">
+        <f>"insert into toidupyramiid.events("&amp;$B$1&amp;", "&amp;$D$1&amp;", "&amp;$E$1&amp;", "&amp;$C$1&amp;") values("&amp;B10&amp;", "&amp;D10&amp;", "&amp;E10&amp;", "&amp;C10&amp;")"</f>
+        <v>insert into toidupyramiid.events(userID, productID, amount, eventDay) values(1, 69, 2, 1)</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>69</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="str">
+        <f>"insert into toidupyramiid.events("&amp;$B$1&amp;", "&amp;$D$1&amp;", "&amp;$E$1&amp;", "&amp;$C$1&amp;") values("&amp;B11&amp;", "&amp;D11&amp;", "&amp;E11&amp;", "&amp;C11&amp;")"</f>
+        <v>insert into toidupyramiid.events(userID, productID, amount, eventDay) values(1, 26, 3, 1)</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="str">
+        <f>"insert into toidupyramiid.events("&amp;$B$1&amp;", "&amp;$D$1&amp;", "&amp;$E$1&amp;", "&amp;$C$1&amp;") values("&amp;B12&amp;", "&amp;D12&amp;", "&amp;E12&amp;", "&amp;C12&amp;")"</f>
+        <v>insert into toidupyramiid.events(userID, productID, amount, eventDay) values(1, 133, 10, 1)</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>133</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -511,4 +1106,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>